--- a/Document/MenuTree.xlsx
+++ b/Document/MenuTree.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>Depth0</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Setting</t>
-  </si>
-  <si>
-    <t>Path</t>
   </si>
   <si>
     <t>기본 동작 경로 지정</t>
@@ -246,6 +243,34 @@
   </si>
   <si>
     <t>Default Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node Address Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcuteProcess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -450,11 +475,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +544,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -492,23 +574,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,13 +907,13 @@
     <row r="1" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -848,10 +921,10 @@
         <v>45117</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,11 +1063,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:G53"/>
+  <dimension ref="B1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41:F43"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1011,33 +1084,33 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1053,7 +1126,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1140,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1154,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1166,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1176,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1111,7 +1184,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1122,12 +1195,12 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1214,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1150,12 +1223,12 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1163,47 +1236,39 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>19</v>
+      <c r="B14" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1211,21 +1276,25 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>25</v>
+      <c r="B18" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1233,161 +1302,165 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="9" t="s">
-        <v>34</v>
+      <c r="B24" s="16"/>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
-        <v>38</v>
+      <c r="B26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="3" t="s">
-        <v>45</v>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="3" t="s">
-        <v>47</v>
+      <c r="B33" s="16"/>
+      <c r="C33" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1395,103 +1468,93 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
+      <c r="B36" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="B38" s="16"/>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+      <c r="B41" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1499,47 +1562,69 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1547,7 +1632,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1578,25 +1663,74 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
+    <row r="54" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/MenuTree.xlsx
+++ b/Document/MenuTree.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
     <sheet name="MenuTree" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
   <si>
     <t>Depth2</t>
   </si>
@@ -445,13 +446,92 @@
   <si>
     <t>View Log</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>html + …. + html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>html + excel or excel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>config output</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>config 값 포함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>config 값 미포함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>coverage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +577,13 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -561,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -713,11 +800,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,6 +909,21 @@
     <xf numFmtId="49" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,9 +936,6 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -812,16 +948,28 @@
     <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,7 +1459,7 @@
   </sheetPr>
   <dimension ref="B2:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1330,50 +1478,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="24" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="24" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="24" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="17">
         <v>37</v>
       </c>
@@ -1424,11 +1572,11 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="16" t="s">
         <v>71</v>
       </c>
@@ -1479,10 +1627,10 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -1510,8 +1658,8 @@
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1537,8 +1685,8 @@
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1564,8 +1712,8 @@
       <c r="V7" s="12"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1591,8 +1739,8 @@
       <c r="V8" s="12"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
@@ -1618,8 +1766,8 @@
       <c r="V9" s="12"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1647,8 +1795,8 @@
       <c r="V10" s="12"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="19" t="s">
         <v>40</v>
       </c>
@@ -1674,8 +1822,8 @@
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="19" t="s">
         <v>41</v>
       </c>
@@ -1701,11 +1849,11 @@
       <c r="V12" s="12"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -1732,9 +1880,9 @@
       <c r="V13" s="12"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="10" t="s">
         <v>34</v>
       </c>
@@ -1759,9 +1907,9 @@
       <c r="V14" s="12"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="10" t="s">
         <v>51</v>
       </c>
@@ -1786,9 +1934,9 @@
       <c r="V15" s="12"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="32" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -1815,9 +1963,9 @@
       <c r="V16" s="12"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="10" t="s">
         <v>36</v>
       </c>
@@ -1842,8 +1990,8 @@
       <c r="V17" s="12"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -1871,8 +2019,8 @@
       <c r="V18" s="12"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="18" t="s">
         <v>53</v>
       </c>
@@ -1898,9 +2046,9 @@
       <c r="V19" s="12"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="32" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1927,9 +2075,9 @@
       <c r="V20" s="12"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="10" t="s">
         <v>10</v>
       </c>
@@ -1954,8 +2102,8 @@
       <c r="V21" s="12"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -1983,8 +2131,8 @@
       <c r="V22" s="12"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="20" t="s">
         <v>60</v>
       </c>
@@ -2010,8 +2158,8 @@
       <c r="V23" s="12"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="18" t="s">
         <v>111</v>
       </c>
@@ -2037,8 +2185,8 @@
       <c r="V24" s="12"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -2066,8 +2214,8 @@
       <c r="V25" s="12"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="18" t="s">
         <v>13</v>
       </c>
@@ -2093,13 +2241,13 @@
       <c r="V26" s="12"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -2126,9 +2274,9 @@
       <c r="V27" s="12"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="10" t="s">
         <v>36</v>
       </c>
@@ -2153,9 +2301,9 @@
       <c r="V28" s="12"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="10" t="s">
         <v>89</v>
       </c>
@@ -2180,8 +2328,8 @@
       <c r="V29" s="12"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="18" t="s">
         <v>92</v>
       </c>
@@ -2207,8 +2355,8 @@
       <c r="V30" s="12"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="18" t="s">
         <v>91</v>
       </c>
@@ -2234,8 +2382,8 @@
       <c r="V31" s="12"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="18" t="s">
         <v>93</v>
       </c>
@@ -2261,8 +2409,8 @@
       <c r="V32" s="12"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="19" t="s">
@@ -2290,8 +2438,8 @@
       <c r="V33" s="12"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="23"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="19" t="s">
         <v>59</v>
       </c>
@@ -2317,8 +2465,8 @@
       <c r="V34" s="12"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="19" t="s">
         <v>51</v>
       </c>
@@ -2344,8 +2492,8 @@
       <c r="V35" s="12"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -2373,8 +2521,8 @@
       <c r="V36" s="12"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2400,8 +2548,8 @@
       <c r="V37" s="12"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" s="23"/>
-      <c r="C38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="21" t="s">
         <v>48</v>
       </c>
@@ -2427,8 +2575,8 @@
       <c r="V38" s="12"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="23"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="21" t="s">
         <v>95</v>
       </c>
@@ -2454,8 +2602,8 @@
       <c r="V39" s="12"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="23"/>
-      <c r="C40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="21" t="s">
         <v>49</v>
       </c>
@@ -2481,8 +2629,8 @@
       <c r="V40" s="12"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B41" s="23"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="21" t="s">
         <v>32</v>
       </c>
@@ -2508,8 +2656,8 @@
       <c r="V41" s="12"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="23"/>
-      <c r="C42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="21" t="s">
         <v>50</v>
       </c>
@@ -2535,8 +2683,8 @@
       <c r="V42" s="12"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="21" t="s">
         <v>33</v>
       </c>
@@ -2562,8 +2710,8 @@
       <c r="V43" s="12"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="21" t="s">
         <v>102</v>
       </c>
@@ -2589,8 +2737,8 @@
       <c r="V44" s="12"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="21" t="s">
@@ -2618,8 +2766,8 @@
       <c r="V45" s="12"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="21" t="s">
         <v>46</v>
       </c>
@@ -2645,8 +2793,8 @@
       <c r="V46" s="12"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
-      <c r="C47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="21" t="s">
         <v>44</v>
       </c>
@@ -2672,8 +2820,8 @@
       <c r="V47" s="12"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B48" s="23"/>
-      <c r="C48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="21" t="s">
         <v>42</v>
       </c>
@@ -2699,8 +2847,8 @@
       <c r="V48" s="12"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="23"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="21" t="s">
         <v>40</v>
       </c>
@@ -2726,8 +2874,8 @@
       <c r="V49" s="12"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="23"/>
-      <c r="C50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="21" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2901,8 @@
       <c r="V50" s="12"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="23"/>
-      <c r="C51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="24"/>
       <c r="D51" s="21" t="s">
         <v>26</v>
       </c>
@@ -2780,8 +2928,8 @@
       <c r="V51" s="12"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B52" s="23"/>
-      <c r="C52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="21" t="s">
         <v>27</v>
       </c>
@@ -2807,8 +2955,8 @@
       <c r="V52" s="12"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="23"/>
-      <c r="C53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="21" t="s">
         <v>28</v>
       </c>
@@ -2834,8 +2982,8 @@
       <c r="V53" s="12"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="23"/>
-      <c r="C54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="21" t="s">
         <v>29</v>
       </c>
@@ -2861,13 +3009,13 @@
       <c r="V54" s="12"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E55" s="11" t="s">
@@ -2894,9 +3042,9 @@
       <c r="V55" s="12"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B56" s="23"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="29"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="11" t="s">
         <v>105</v>
       </c>
@@ -2921,9 +3069,9 @@
       <c r="V56" s="12"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="23"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28" t="s">
+      <c r="B57" s="28"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="32" t="s">
         <v>101</v>
       </c>
       <c r="E57" s="11" t="s">
@@ -2950,9 +3098,9 @@
       <c r="V57" s="12"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="23"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="30"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="11" t="s">
         <v>99</v>
       </c>
@@ -2977,9 +3125,9 @@
       <c r="V58" s="12"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="23"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="11" t="s">
         <v>100</v>
       </c>
@@ -3004,8 +3152,8 @@
       <c r="V59" s="12"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="23"/>
-      <c r="C60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="24"/>
       <c r="D60" s="21" t="s">
         <v>96</v>
       </c>
@@ -3031,11 +3179,11 @@
       <c r="V60" s="12"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B61" s="23"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="28"/>
+      <c r="C61" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E61" s="11" t="s">
@@ -3062,9 +3210,9 @@
       <c r="V61" s="12"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="23"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="29"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="11" t="s">
         <v>64</v>
       </c>
@@ -3089,8 +3237,8 @@
       <c r="V62" s="12"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="23"/>
-      <c r="C63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="21" t="s">
         <v>65</v>
       </c>
@@ -3116,7 +3264,7 @@
       <c r="V63" s="12"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="23"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="8" t="s">
         <v>66</v>
       </c>
@@ -3143,7 +3291,7 @@
       <c r="V64" s="15"/>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B65" s="23"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="8"/>
       <c r="D65" s="21"/>
       <c r="E65" s="11"/>
@@ -3166,7 +3314,7 @@
       <c r="V65" s="12"/>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B66" s="23"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="8"/>
       <c r="D66" s="21"/>
       <c r="E66" s="11"/>
@@ -3189,7 +3337,7 @@
       <c r="V66" s="12"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="23"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="8"/>
       <c r="D67" s="21"/>
       <c r="E67" s="11"/>
@@ -3212,7 +3360,7 @@
       <c r="V67" s="12"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B68" s="23"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="8"/>
       <c r="D68" s="21"/>
       <c r="E68" s="11"/>
@@ -3236,20 +3384,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C33:C35"/>
     <mergeCell ref="B5:B26"/>
     <mergeCell ref="B27:B54"/>
     <mergeCell ref="B55:B68"/>
@@ -3266,9 +3400,234 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B1:B7"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>